--- a/tmpGoldTran.xlsx
+++ b/tmpGoldTran.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DaiLamMoc\KeToanDaiLamMoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DaiLamMoc\KeToanDaiLamMoc\DaiLamMoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B8C75-4A7A-4D62-AF47-1E9075630102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F07A2EF-0FC3-47D2-8DE1-9DFC79746568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1365" windowWidth="19545" windowHeight="13755" xr2:uid="{253D0869-A4AE-4EF6-92DB-B8CF01F42683}"/>
+    <workbookView xWindow="7620" yWindow="1020" windowWidth="19545" windowHeight="13755" xr2:uid="{253D0869-A4AE-4EF6-92DB-B8CF01F42683}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>CÔNG TY TNHH THƯƠNG MẠI XUẤT NHẬP KHẨU VÀ VẬN TẢI ĐẠI LÂM MỘC</t>
   </si>
@@ -82,21 +82,6 @@
   </si>
   <si>
     <t>Xe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi phí Thông quan xe TQ ( 200 tệ x 3700 ) </t>
-  </si>
-  <si>
-    <t>Cước xe ghép từ Tân Thanh đến Phúc Thọ Hà Nội xe 1.5T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chuyến </t>
-  </si>
-  <si>
-    <t>02/09 - Thiết bị nhập khẩu ( thiết bị ) - TQ FB9056   - VN 98H06161 , xe 1.5T  TT - Phúc Thọ Hà Nội  TK 107483560550  / A -  LG2509008</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Cộng</t>
@@ -358,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -447,6 +432,66 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -458,60 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -828,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F088A7-4EAF-4256-A17C-1AC32D109958}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,30 +834,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -877,8 +868,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,67 +888,67 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
@@ -975,10 +966,10 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
@@ -996,10 +987,10 @@
       <c r="A14" s="13">
         <v>1</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
@@ -1019,179 +1010,1577 @@
       <c r="A15" s="13">
         <v>2</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18">
-        <f>200*3700</f>
-        <v>740000</v>
-      </c>
-      <c r="G15" s="17">
-        <f>E15*F15</f>
-        <v>740000</v>
-      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <v>6</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20">
-        <v>500000</v>
-      </c>
-      <c r="G16" s="21">
-        <f>E16*F16</f>
-        <v>500000</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>5</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>6</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>8</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>9</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>10</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>11</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>12</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>13</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>14</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>15</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>16</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>17</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>18</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>19</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>20</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>21</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>22</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>23</v>
       </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>24</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="24">
-        <f>SUM(G14:G17)</f>
-        <v>1610000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>25</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>26</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="31" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>27</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>28</v>
       </c>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>29</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="32" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>30</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="32"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>31</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>32</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>33</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>34</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>35</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>36</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>37</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>38</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>39</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>40</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>41</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>42</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>43</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>44</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>45</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>46</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>47</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>48</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>49</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>50</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>51</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>52</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>53</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>54</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>55</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>56</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>57</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>58</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>59</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>60</v>
+      </c>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>61</v>
+      </c>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>62</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>63</v>
+      </c>
+      <c r="B76" s="29"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>64</v>
+      </c>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>65</v>
+      </c>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>66</v>
+      </c>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>67</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>68</v>
+      </c>
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>69</v>
+      </c>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>70</v>
+      </c>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>71</v>
+      </c>
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>72</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="17"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>73</v>
+      </c>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>74</v>
+      </c>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>75</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>76</v>
+      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>77</v>
+      </c>
+      <c r="B90" s="41"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>78</v>
+      </c>
+      <c r="B91" s="41"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
+        <v>79</v>
+      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>80</v>
+      </c>
+      <c r="B93" s="45"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
+        <v>81</v>
+      </c>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
+        <v>82</v>
+      </c>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
+        <v>83</v>
+      </c>
+      <c r="B96" s="43"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
+        <v>84</v>
+      </c>
+      <c r="B97" s="45"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="17"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
+        <v>85</v>
+      </c>
+      <c r="B98" s="41"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="17"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
+        <v>86</v>
+      </c>
+      <c r="B99" s="41"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="17"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>87</v>
+      </c>
+      <c r="B100" s="43"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="21"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
+        <v>88</v>
+      </c>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="17"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>89</v>
+      </c>
+      <c r="B102" s="41"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="17"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
+        <v>90</v>
+      </c>
+      <c r="B103" s="41"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="17"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
+        <v>91</v>
+      </c>
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="21"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
+        <v>92</v>
+      </c>
+      <c r="B105" s="45"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="17"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>93</v>
+      </c>
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="17"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>94</v>
+      </c>
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="17"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
+        <v>95</v>
+      </c>
+      <c r="B108" s="43"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="13">
+        <v>96</v>
+      </c>
+      <c r="B109" s="45"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="17"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
+        <v>97</v>
+      </c>
+      <c r="B110" s="41"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="17"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="13">
+        <v>98</v>
+      </c>
+      <c r="B111" s="41"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="17"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
+        <v>99</v>
+      </c>
+      <c r="B112" s="43"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="21"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
+        <v>100</v>
+      </c>
+      <c r="B113" s="45"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="17"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
+        <v>101</v>
+      </c>
+      <c r="B114" s="41"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="13">
+        <v>102</v>
+      </c>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="17"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
+        <v>103</v>
+      </c>
+      <c r="B116" s="43"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="21"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
+        <v>104</v>
+      </c>
+      <c r="B117" s="45"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="17"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
+        <v>105</v>
+      </c>
+      <c r="B118" s="41"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="17"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="13">
+        <v>106</v>
+      </c>
+      <c r="B119" s="41"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="17"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
+        <v>107</v>
+      </c>
+      <c r="B120" s="43"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
+        <v>108</v>
+      </c>
+      <c r="B121" s="45"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="17"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
+        <v>109</v>
+      </c>
+      <c r="B122" s="41"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="17"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
+        <v>110</v>
+      </c>
+      <c r="B123" s="41"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="17"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
+        <v>111</v>
+      </c>
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="21"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
+        <v>112</v>
+      </c>
+      <c r="B125" s="45"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="17"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
+        <v>113</v>
+      </c>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="17"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="13">
+        <v>114</v>
+      </c>
+      <c r="B127" s="41"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="17"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="13">
+        <v>115</v>
+      </c>
+      <c r="B128" s="43"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="21"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="13">
+        <v>116</v>
+      </c>
+      <c r="B129" s="45"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="17"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
+        <v>117</v>
+      </c>
+      <c r="B130" s="41"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="17"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="13">
+        <v>118</v>
+      </c>
+      <c r="B131" s="41"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="17"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="13">
+        <v>119</v>
+      </c>
+      <c r="B132" s="43"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="21"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="13">
+        <v>120</v>
+      </c>
+      <c r="B133" s="45"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="17"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
+        <v>121</v>
+      </c>
+      <c r="B134" s="41"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="17"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="13">
+        <v>122</v>
+      </c>
+      <c r="B135" s="41"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="17"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="13">
+        <v>123</v>
+      </c>
+      <c r="B136" s="43"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="21"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="13">
+        <v>124</v>
+      </c>
+      <c r="B137" s="45"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="17"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="13">
+        <v>125</v>
+      </c>
+      <c r="B138" s="41"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="17"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="13">
+        <v>126</v>
+      </c>
+      <c r="B139" s="41"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="17"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="13">
+        <v>127</v>
+      </c>
+      <c r="B140" s="43"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="21"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="13">
+        <v>128</v>
+      </c>
+      <c r="B141" s="45"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="17"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="24">
+        <f>SUM(G138:G141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="48"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="25"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="48"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="25"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="26"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="49"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="49"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="50"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="27"/>
+      <c r="B148" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="27"/>
+      <c r="D148" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" s="51"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="27"/>
+      <c r="B149" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="27"/>
+      <c r="D149" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G149" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="85">
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
